--- a/Projet/A1.xlsx
+++ b/Projet/A1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E442601F-B992-4671-949B-D6E8491428F2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32958AB5-D034-4300-B91E-6A3A0A03B396}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="79">
   <si>
     <t>année</t>
   </si>
@@ -257,12 +257,15 @@
   <si>
     <t>y1</t>
   </si>
+  <si>
+    <t>Les parametres minimisant le MAPE sont:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -367,8 +370,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -405,6 +416,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -419,7 +436,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -473,7 +490,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -482,26 +501,6 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{46F8B894-6611-4D8B-B64D-72C71E89B5DD}"/>
   </cellStyles>
   <dxfs count="10">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -526,6 +525,26 @@
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -540,16 +559,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{50F67418-F5D4-417D-AB3A-7ECBFCA7EA6F}" name="Table1" displayName="Table1" ref="C47:I50" totalsRowShown="0" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{50F67418-F5D4-417D-AB3A-7ECBFCA7EA6F}" name="Table1" displayName="Table1" ref="C47:I50" totalsRowShown="0" dataDxfId="7">
   <autoFilter ref="C47:I50" xr:uid="{90363FB3-9D95-4DFC-B99A-895510FD2BEA}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{2DDC51E1-F27C-40C6-A839-10A1FCC335E8}" name="Critere\Modele" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{BE2F5B95-F5B0-493A-99DC-5444EB298CF4}" name="Tend Lin" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{78774DBD-E88A-4001-999F-EF8054B99855}" name="Ten qua" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{1988ED95-E010-4CFA-BC24-8923BEB63076}" name="Expo" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{45AF6D27-F562-4D26-BBF1-20F27CCEA19C}" name="Expo mod" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{381175A4-D6E2-41C1-BB48-929A1EFAC471}" name="Gompertz" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{411FA479-E521-4EF7-B0AA-CB9E4D31DB63}" name="Logistique" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{2DDC51E1-F27C-40C6-A839-10A1FCC335E8}" name="Critere\Modele" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{BE2F5B95-F5B0-493A-99DC-5444EB298CF4}" name="Tend Lin" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{78774DBD-E88A-4001-999F-EF8054B99855}" name="Ten qua" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{1988ED95-E010-4CFA-BC24-8923BEB63076}" name="Expo" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{45AF6D27-F562-4D26-BBF1-20F27CCEA19C}" name="Expo mod" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{381175A4-D6E2-41C1-BB48-929A1EFAC471}" name="Gompertz" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{411FA479-E521-4EF7-B0AA-CB9E4D31DB63}" name="Logistique" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -941,7 +960,7 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <f>B4*B4</f>
+        <f t="shared" ref="I4:I10" si="0">B4*B4</f>
         <v>1</v>
       </c>
       <c r="P4">
@@ -969,11 +988,11 @@
         <v>1703</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:D45" si="0">LN(C5)</f>
+        <f t="shared" ref="D5:D45" si="1">LN(C5)</f>
         <v>7.4401466806626884</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E5:E45" si="1">1/C5</f>
+        <f t="shared" ref="E5:E45" si="2">1/C5</f>
         <v>5.8719906048150322E-4</v>
       </c>
       <c r="G5">
@@ -984,7 +1003,7 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <f>B5*B5</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="Q5" s="8"/>
@@ -997,29 +1016,29 @@
         <v>1949</v>
       </c>
       <c r="B6" s="12">
-        <f t="shared" ref="B6:B45" si="2">B5+1</f>
+        <f t="shared" ref="B6:B45" si="3">B5+1</f>
         <v>3</v>
       </c>
       <c r="C6" s="13">
         <v>1646.5</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.406407101816419</v>
       </c>
       <c r="E6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.0734892195566357E-4</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6">
-        <f t="shared" ref="H6:H45" si="3">H5+1</f>
+        <f t="shared" ref="H6:H45" si="4">H5+1</f>
         <v>3</v>
       </c>
       <c r="I6">
-        <f>B6*B6</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="P6" s="7" t="s">
@@ -1033,29 +1052,29 @@
         <v>1950</v>
       </c>
       <c r="B7" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="C7" s="13">
         <v>1974.5</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.5880704807267039</v>
       </c>
       <c r="E7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.0645733096986575E-4</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="I7">
-        <f>B7*B7</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="P7" t="s">
@@ -1071,29 +1090,29 @@
         <v>1951</v>
       </c>
       <c r="B8" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="C8" s="13">
         <v>2236.5</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.7126674228729026</v>
       </c>
       <c r="E8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.47127207690588E-4</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I8">
-        <f>B8*B8</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="P8" t="s">
@@ -1108,29 +1127,29 @@
         <v>1952</v>
       </c>
       <c r="B9" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="C9" s="13">
         <v>2396.5</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.781764618599686</v>
       </c>
       <c r="E9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.1727519298977677E-4</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="I9">
-        <f>B9*B9</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="P9" t="s">
@@ -1145,29 +1164,29 @@
         <v>1953</v>
       </c>
       <c r="B10" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="C10" s="13">
         <v>2440.5</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.7999582153272025</v>
       </c>
       <c r="E10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.097520999795124E-4</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="I10">
-        <f>B10*B10</f>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
     </row>
@@ -1176,29 +1195,29 @@
         <v>1954</v>
       </c>
       <c r="B11" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="C11" s="13">
         <v>2631.5</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.8753093047938334</v>
       </c>
       <c r="E11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.8001140034201028E-4</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="I11">
-        <f t="shared" ref="I11:I45" si="4">B11*B11</f>
+        <f t="shared" ref="I11:I45" si="5">B11*B11</f>
         <v>64</v>
       </c>
       <c r="P11" s="5" t="s">
@@ -1214,29 +1233,29 @@
         <v>1955</v>
       </c>
       <c r="B12" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="C12" s="13">
         <v>2905.5</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.9743607715151601</v>
       </c>
       <c r="E12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.4417484081913615E-4</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="I12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>81</v>
       </c>
       <c r="P12" s="7" t="s">
@@ -1252,29 +1271,29 @@
         <v>1956</v>
       </c>
       <c r="B13" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="C13" s="13">
         <v>3079.5</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.0325225251270975</v>
       </c>
       <c r="E13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.2472804026627701E-4</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="H13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="I13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="P13" s="7" t="s">
@@ -1290,29 +1309,29 @@
         <v>1957</v>
       </c>
       <c r="B14" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="C14" s="13">
         <v>3080.5</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.0328472004546256</v>
       </c>
       <c r="E14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.2462262619704593E-4</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="H14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="I14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>121</v>
       </c>
       <c r="P14" t="s">
@@ -1330,29 +1349,29 @@
         <v>1958</v>
       </c>
       <c r="B15" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="C15" s="13">
         <v>3267</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.0916274116010705</v>
       </c>
       <c r="E15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.0609121518212427E-4</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="H15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="I15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>144</v>
       </c>
       <c r="P15">
@@ -1373,29 +1392,29 @@
         <v>1959</v>
       </c>
       <c r="B16" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="C16" s="13">
         <v>3300</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.1016777474545716</v>
       </c>
       <c r="E16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.0303030303030303E-4</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="H16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="I16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>169</v>
       </c>
     </row>
@@ -1404,29 +1423,29 @@
         <v>1960</v>
       </c>
       <c r="B17" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="C17" s="13">
         <v>3426.5</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.1392946110258784</v>
       </c>
       <c r="E17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.9184298847220193E-4</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="H17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="I17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>196</v>
       </c>
       <c r="P17" s="5" t="s">
@@ -1443,29 +1462,29 @@
         <v>1961</v>
       </c>
       <c r="B18" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="C18" s="15">
         <v>3472</v>
       </c>
       <c r="D18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.1524860757802404</v>
       </c>
       <c r="E18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.880184331797235E-4</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="H18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="I18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>225</v>
       </c>
       <c r="P18" s="7" t="s">
@@ -1482,29 +1501,29 @@
         <v>1962</v>
       </c>
       <c r="B19" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="C19" s="15">
         <v>3662</v>
       </c>
       <c r="D19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.2057647252344559</v>
       </c>
       <c r="E19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.7307482250136535E-4</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="H19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="I19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>256</v>
       </c>
     </row>
@@ -1513,29 +1532,29 @@
         <v>1963</v>
       </c>
       <c r="B20" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="C20" s="15">
         <v>3736.5</v>
       </c>
       <c r="D20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.2259046233703454</v>
       </c>
       <c r="E20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.6763013515321824E-4</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="H20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="I20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>289</v>
       </c>
       <c r="Q20" s="17" t="s">
@@ -1553,29 +1572,29 @@
         <v>1964</v>
       </c>
       <c r="B21" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="C21" s="15">
         <v>3752</v>
       </c>
       <c r="D21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.2300443101261145</v>
       </c>
       <c r="E21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.6652452025586353E-4</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="H21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="I21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>324</v>
       </c>
       <c r="O21" t="s">
@@ -1599,29 +1618,29 @@
         <v>1965</v>
       </c>
       <c r="B22" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="C22" s="15">
         <v>3879</v>
       </c>
       <c r="D22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.2633326674399665</v>
       </c>
       <c r="E22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5779840164990978E-4</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="H22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="I22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>361</v>
       </c>
       <c r="O22">
@@ -1649,29 +1668,29 @@
         <v>1966</v>
       </c>
       <c r="B23" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="C23" s="15">
         <v>3987</v>
       </c>
       <c r="D23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.2907943473813557</v>
       </c>
       <c r="E23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5081514923501377E-4</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="H23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="I23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>400</v>
       </c>
       <c r="O23">
@@ -1699,29 +1718,29 @@
         <v>1967</v>
       </c>
       <c r="B24" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="C24" s="15">
         <v>4091</v>
       </c>
       <c r="D24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.3165447179293981</v>
       </c>
       <c r="E24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.4443901246638962E-4</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="H24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="I24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>441</v>
       </c>
       <c r="O24">
@@ -1749,29 +1768,29 @@
         <v>1968</v>
       </c>
       <c r="B25" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="C25" s="15">
         <v>4372.5</v>
       </c>
       <c r="D25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.3830902068927564</v>
       </c>
       <c r="E25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.2870211549456832E-4</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="H25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="I25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>484</v>
       </c>
     </row>
@@ -1780,29 +1799,29 @@
         <v>1969</v>
       </c>
       <c r="B26" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="C26" s="15">
         <v>4501.5</v>
       </c>
       <c r="D26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.4121659535485307</v>
       </c>
       <c r="E26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.2214817283127845E-4</v>
       </c>
       <c r="G26">
         <v>1</v>
       </c>
       <c r="H26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="I26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>529</v>
       </c>
       <c r="O26">
@@ -1818,29 +1837,29 @@
         <v>1970</v>
       </c>
       <c r="B27" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="C27" s="15">
         <v>4636</v>
       </c>
       <c r="D27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.4416072044596415</v>
       </c>
       <c r="E27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.1570319240724764E-4</v>
       </c>
       <c r="G27">
         <v>1</v>
       </c>
       <c r="H27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="I27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>576</v>
       </c>
       <c r="P27" t="s">
@@ -1864,29 +1883,29 @@
         <v>1971</v>
       </c>
       <c r="B28" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="C28" s="15">
         <v>4856.5</v>
       </c>
       <c r="D28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.488073292842385</v>
       </c>
       <c r="E28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.0590960568310512E-4</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
       <c r="H28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="I28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>625</v>
       </c>
       <c r="P28" s="11" t="s">
@@ -1897,11 +1916,11 @@
         <v>0.96634128390982299</v>
       </c>
       <c r="R28">
-        <f t="shared" ref="R28:S28" si="5">EXP(R27)</f>
+        <f t="shared" ref="R28:S28" si="6">EXP(R27)</f>
         <v>0.94208508503985455</v>
       </c>
       <c r="S28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.91723192513475471</v>
       </c>
     </row>
@@ -1910,29 +1929,29 @@
         <v>1972</v>
       </c>
       <c r="B29" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="C29" s="15">
         <v>5330.5</v>
       </c>
       <c r="D29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.5812003213905292</v>
       </c>
       <c r="E29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8759966232060783E-4</v>
       </c>
       <c r="G29">
         <v>1</v>
       </c>
       <c r="H29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="I29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>676</v>
       </c>
       <c r="P29" s="11" t="s">
@@ -1956,29 +1975,29 @@
         <v>1973</v>
       </c>
       <c r="B30" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="C30" s="15">
         <v>5643.5</v>
       </c>
       <c r="D30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.6382597193956805</v>
       </c>
       <c r="E30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7719500310091257E-4</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
       <c r="H30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="I30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>729</v>
       </c>
       <c r="P30" s="11" t="s">
@@ -2002,29 +2021,29 @@
         <v>1974</v>
       </c>
       <c r="B31" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="C31" s="15">
         <v>5379.5</v>
       </c>
       <c r="D31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.5903507120339633</v>
       </c>
       <c r="E31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8589088205223534E-4</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
       <c r="H31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="I31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>784</v>
       </c>
     </row>
@@ -2033,29 +2052,29 @@
         <v>1975</v>
       </c>
       <c r="B32" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="C32" s="1">
         <v>5203</v>
       </c>
       <c r="D32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.5569906612903033</v>
       </c>
       <c r="E32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9219680953296174E-4</v>
       </c>
       <c r="G32">
         <v>1</v>
       </c>
       <c r="H32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="I32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>841</v>
       </c>
     </row>
@@ -2064,29 +2083,29 @@
         <v>1976</v>
       </c>
       <c r="B33" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="C33" s="1">
         <v>5733.5</v>
       </c>
       <c r="D33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.6540814434783595</v>
       </c>
       <c r="E33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7441353449027645E-4</v>
       </c>
       <c r="G33">
         <v>1</v>
       </c>
       <c r="H33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="I33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>900</v>
       </c>
     </row>
@@ -2095,29 +2114,29 @@
         <v>1977</v>
       </c>
       <c r="B34" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="C34" s="1">
         <v>6116.5</v>
       </c>
       <c r="D34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.7187453164869719</v>
       </c>
       <c r="E34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6349219324777241E-4</v>
       </c>
       <c r="G34">
         <v>1</v>
       </c>
       <c r="H34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="I34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>961</v>
       </c>
     </row>
@@ -2126,29 +2145,29 @@
         <v>1978</v>
       </c>
       <c r="B35" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="C35" s="1">
         <v>6263</v>
       </c>
       <c r="D35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.7424145825254129</v>
       </c>
       <c r="E35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.596678907871627E-4</v>
       </c>
       <c r="G35">
         <v>1</v>
       </c>
       <c r="H35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="I35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1024</v>
       </c>
     </row>
@@ -2157,29 +2176,29 @@
         <v>1979</v>
       </c>
       <c r="B36" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="C36" s="1">
         <v>6042.5</v>
       </c>
       <c r="D36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.7065731125776384</v>
       </c>
       <c r="E36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6549441456350849E-4</v>
       </c>
       <c r="G36">
         <v>1</v>
       </c>
       <c r="H36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="I36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1089</v>
       </c>
     </row>
@@ -2188,29 +2207,29 @@
         <v>1980</v>
       </c>
       <c r="B37" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="C37" s="1">
         <v>5245</v>
       </c>
       <c r="D37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.5650305208303976</v>
       </c>
       <c r="E37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9065776930409913E-4</v>
       </c>
       <c r="G37">
         <v>1</v>
       </c>
       <c r="H37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="I37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1156</v>
       </c>
     </row>
@@ -2219,29 +2238,29 @@
         <v>1981</v>
       </c>
       <c r="B38" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="C38" s="1">
         <v>5162.5</v>
       </c>
       <c r="D38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.5491762372692879</v>
       </c>
       <c r="E38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9370460048426149E-4</v>
       </c>
       <c r="G38">
         <v>1</v>
       </c>
       <c r="H38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="I38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1225</v>
       </c>
     </row>
@@ -2250,29 +2269,29 @@
         <v>1982</v>
       </c>
       <c r="B39" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="C39" s="1">
         <v>4874.5</v>
       </c>
       <c r="D39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.4917728140693267</v>
       </c>
       <c r="E39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.0514924607652066E-4</v>
       </c>
       <c r="G39">
         <v>1</v>
       </c>
       <c r="H39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="I39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1296</v>
       </c>
     </row>
@@ -2281,29 +2300,29 @@
         <v>1983</v>
       </c>
       <c r="B40" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="C40" s="1">
         <v>4909.5</v>
       </c>
       <c r="D40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.4989273826093452</v>
       </c>
       <c r="E40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.0368672980955292E-4</v>
       </c>
       <c r="G40">
         <v>1</v>
       </c>
       <c r="H40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="I40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1369</v>
       </c>
     </row>
@@ -2312,29 +2331,29 @@
         <v>1984</v>
       </c>
       <c r="B41" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="C41" s="1">
         <v>5206</v>
       </c>
       <c r="D41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.5575670855545098</v>
       </c>
       <c r="E41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.920860545524395E-4</v>
       </c>
       <c r="G41">
         <v>1</v>
       </c>
       <c r="H41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
       <c r="I41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1444</v>
       </c>
     </row>
@@ -2343,29 +2362,29 @@
         <v>1985</v>
       </c>
       <c r="B42" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="C42" s="1">
         <v>5234</v>
       </c>
       <c r="D42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.562931083090092</v>
       </c>
       <c r="E42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9105846388995032E-4</v>
       </c>
       <c r="G42">
         <v>1</v>
       </c>
       <c r="H42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>39</v>
       </c>
       <c r="I42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1521</v>
       </c>
     </row>
@@ -2374,29 +2393,29 @@
         <v>1986</v>
       </c>
       <c r="B43" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="C43" s="1">
         <v>5318.5</v>
       </c>
       <c r="D43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.5789465876917195</v>
       </c>
       <c r="E43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8802293879853342E-4</v>
       </c>
       <c r="G43">
         <v>1</v>
       </c>
       <c r="H43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="I43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1600</v>
       </c>
     </row>
@@ -2405,29 +2424,29 @@
         <v>1987</v>
       </c>
       <c r="B44" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
       <c r="C44" s="1">
         <v>5432</v>
       </c>
       <c r="D44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.6000626692385325</v>
       </c>
       <c r="E44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8409425625920471E-4</v>
       </c>
       <c r="G44">
         <v>1</v>
       </c>
       <c r="H44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>41</v>
       </c>
       <c r="I44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1681</v>
       </c>
     </row>
@@ -2436,29 +2455,29 @@
         <v>1988</v>
       </c>
       <c r="B45" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="C45" s="1">
         <v>5712.5</v>
       </c>
       <c r="D45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.6504120352024607</v>
       </c>
       <c r="E45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.75054704595186E-4</v>
       </c>
       <c r="G45">
         <v>1</v>
       </c>
       <c r="H45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
       <c r="I45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1764</v>
       </c>
     </row>
@@ -2573,7 +2592,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3:E3 A1:E1 I3 A3 G3">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2880,7 +2899,7 @@
         <v>11.363911144819786</v>
       </c>
       <c r="X3">
-        <f t="shared" ref="X3:X45" si="14">100*ABS(C3-F3)/C3</f>
+        <f t="shared" ref="X3:X43" si="14">100*ABS(C3-F3)/C3</f>
         <v>29.465907682915464</v>
       </c>
       <c r="Y3">
@@ -7244,27 +7263,27 @@
         <v>59</v>
       </c>
       <c r="D48" s="18">
-        <f>SQRT(AVERAGE(J2:J43))</f>
+        <f t="shared" ref="D48:I48" si="19">SQRT(AVERAGE(J2:J43))</f>
         <v>486.9672864681545</v>
       </c>
       <c r="E48" s="18">
-        <f>SQRT(AVERAGE(K2:K43))</f>
+        <f t="shared" si="19"/>
         <v>347.79018211173468</v>
       </c>
       <c r="F48" s="18">
-        <f>SQRT(AVERAGE(L2:L43))</f>
+        <f t="shared" si="19"/>
         <v>679.46399595206674</v>
       </c>
       <c r="G48" s="18">
-        <f>SQRT(AVERAGE(M2:M43))</f>
+        <f t="shared" si="19"/>
         <v>406.51441994848636</v>
       </c>
       <c r="H48" s="18">
-        <f>SQRT(AVERAGE(N2:N43))</f>
+        <f t="shared" si="19"/>
         <v>402.30954796131772</v>
       </c>
       <c r="I48" s="18">
-        <f>SQRT(AVERAGE(O2:O43))</f>
+        <f t="shared" si="19"/>
         <v>400.03460614186736</v>
       </c>
     </row>
@@ -7273,27 +7292,27 @@
         <v>60</v>
       </c>
       <c r="D49" s="18">
-        <f>AVERAGE(P2:P43)</f>
+        <f t="shared" ref="D49:I49" si="20">AVERAGE(P2:P43)</f>
         <v>373.6491794675897</v>
       </c>
       <c r="E49" s="18">
-        <f>AVERAGE(Q2:Q43)</f>
+        <f t="shared" si="20"/>
         <v>265.25279705034455</v>
       </c>
       <c r="F49" s="18">
-        <f>AVERAGE(R2:R43)</f>
+        <f t="shared" si="20"/>
         <v>569.04451681793103</v>
       </c>
       <c r="G49" s="18">
-        <f>AVERAGE(S2:S43)</f>
+        <f t="shared" si="20"/>
         <v>257.54356383822136</v>
       </c>
       <c r="H49" s="18">
-        <f>AVERAGE(T2:T43)</f>
+        <f t="shared" si="20"/>
         <v>260.55238792528047</v>
       </c>
       <c r="I49" s="18">
-        <f>AVERAGE(U2:U43)</f>
+        <f t="shared" si="20"/>
         <v>265.11208534185579</v>
       </c>
     </row>
@@ -7302,33 +7321,33 @@
         <v>61</v>
       </c>
       <c r="D50" s="18">
-        <f>AVERAGE(V2:V43)</f>
+        <f t="shared" ref="D50:I50" si="21">AVERAGE(V2:V43)</f>
         <v>9.2857076225084452</v>
       </c>
       <c r="E50" s="18">
-        <f>AVERAGE(W2:W43)</f>
+        <f t="shared" si="21"/>
         <v>6.1204323259551563</v>
       </c>
       <c r="F50" s="18">
-        <f>AVERAGE(X2:X43)</f>
+        <f t="shared" si="21"/>
         <v>13.868120026042648</v>
       </c>
       <c r="G50" s="18">
-        <f>AVERAGE(Y2:Y43)</f>
+        <f t="shared" si="21"/>
         <v>5.3680571352696527</v>
       </c>
       <c r="H50" s="18">
-        <f>AVERAGE(Z2:Z43)</f>
+        <f t="shared" si="21"/>
         <v>5.705923908546259</v>
       </c>
       <c r="I50" s="18">
-        <f>AVERAGE(AA2:AA43)</f>
+        <f t="shared" si="21"/>
         <v>6.14788671324209</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1 A1">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -7342,7 +7361,7 @@
   <dimension ref="A1:P48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7405,10 +7424,10 @@
         <f>AVERAGE(H3:H43)</f>
         <v>21.191310759602271</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="34">
         <v>0.1</v>
       </c>
     </row>
@@ -7439,10 +7458,10 @@
         <f>100*ABS(G3-B3)/B3</f>
         <v>12.419260129183794</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="34">
         <v>0.2</v>
       </c>
     </row>
@@ -7454,7 +7473,7 @@
         <v>1646.5</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C48" si="0">B4-B3</f>
+        <f t="shared" ref="C4:C43" si="0">B4-B3</f>
         <v>-56.5</v>
       </c>
       <c r="D4">
@@ -7477,10 +7496,10 @@
         <f t="shared" ref="H4:H43" si="1">100*ABS(G4-B4)/B4</f>
         <v>8.0522927421803772</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="34">
         <v>0.3</v>
       </c>
     </row>
@@ -7504,21 +7523,21 @@
         <v>1572.9679574000002</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F4:F43" si="3">$N$3*(E5-E4)+(1-$N$3)*$N$4*F4</f>
+        <f t="shared" ref="F5:F43" si="3">$N$3*(E5-E4)+(1-$N$3)*$N$4*F4</f>
         <v>10.099120280000013</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G4:G43" si="4">E4+$N$4*F4</f>
+        <f t="shared" ref="G5:G43" si="4">E4+$N$4*F4</f>
         <v>1528.353286</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
         <v>22.595427399341606</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="N5" s="33" t="s">
+      <c r="N5" s="35" t="s">
         <v>77</v>
       </c>
     </row>
@@ -7553,10 +7572,10 @@
         <f t="shared" si="1"/>
         <v>29.532855198569184</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="34">
         <v>0</v>
       </c>
     </row>
@@ -7576,7 +7595,7 @@
         <v>-102</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E4:E43" si="5">$N$2*B7+(1-$N$2)*(E6+$N$4*F6)</f>
+        <f t="shared" ref="E7:E43" si="5">$N$2*B7+(1-$N$2)*(E6+$N$4*F6)</f>
         <v>1721.8778729199068</v>
       </c>
       <c r="F7">
@@ -7623,6 +7642,12 @@
         <f t="shared" si="1"/>
         <v>29.201518780315663</v>
       </c>
+      <c r="M8" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -7655,6 +7680,12 @@
         <f t="shared" si="1"/>
         <v>31.401598422241875</v>
       </c>
+      <c r="M9" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" s="34">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -7687,6 +7718,12 @@
         <f t="shared" si="1"/>
         <v>34.793414174069632</v>
       </c>
+      <c r="M10" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="N10" s="34">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -7719,6 +7756,12 @@
         <f t="shared" si="1"/>
         <v>34.932025193381925</v>
       </c>
+      <c r="M11" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="N11" s="34">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -7751,6 +7794,12 @@
         <f t="shared" si="1"/>
         <v>31.172684743314548</v>
       </c>
+      <c r="M12" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="N12" s="35">
+        <v>1620.1</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -7782,6 +7831,12 @@
       <c r="H13">
         <f t="shared" si="1"/>
         <v>31.904507304135461</v>
+      </c>
+      <c r="M13" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="N13" s="34">
+        <v>90.6</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -8785,5 +8840,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>